--- a/team_specific_matrix/Oral Roberts_B.xlsx
+++ b/team_specific_matrix/Oral Roberts_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1773399014778325</v>
+        <v>0.1802120141342756</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>0.5618374558303887</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04433497536945813</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1231527093596059</v>
+        <v>0.1342756183745583</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08374384236453201</v>
+        <v>0.08480565371024736</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008333333333333333</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C3">
-        <v>0.03333333333333333</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05833333333333333</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7333333333333333</v>
+        <v>0.7361963190184049</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1779141104294479</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1481481481481481</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P4">
-        <v>0.5925925925925926</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2592592592592592</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05988023952095808</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01197604790419162</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04790419161676647</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3293413173652694</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01197604790419162</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1497005988023952</v>
+        <v>0.1650943396226415</v>
       </c>
       <c r="R6">
-        <v>0.08982035928143713</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="S6">
-        <v>0.2994011976047904</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09016393442622951</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03278688524590164</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E7">
-        <v>0.00819672131147541</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="F7">
-        <v>0.05737704918032787</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1311475409836066</v>
+        <v>0.1280487804878049</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00819672131147541</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1475409836065574</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="R7">
-        <v>0.07377049180327869</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="S7">
-        <v>0.4508196721311475</v>
+        <v>0.4268292682926829</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07028753993610223</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.003194888178913738</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E8">
-        <v>0.003194888178913738</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="F8">
-        <v>0.07028753993610223</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1182108626198083</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0255591054313099</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1853035143769968</v>
+        <v>0.1834170854271357</v>
       </c>
       <c r="R8">
-        <v>0.09904153354632587</v>
+        <v>0.09798994974874371</v>
       </c>
       <c r="S8">
-        <v>0.4249201277955272</v>
+        <v>0.4346733668341708</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.101123595505618</v>
+        <v>0.1155555555555556</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02247191011235955</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05056179775280899</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1573033707865168</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01685393258426966</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.151685393258427</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="R9">
-        <v>0.1179775280898876</v>
+        <v>0.12</v>
       </c>
       <c r="S9">
-        <v>0.3820224719101123</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1024844720496894</v>
+        <v>0.10546875</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01863354037267081</v>
+        <v>0.0203125</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06521739130434782</v>
+        <v>0.06484375000000001</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1438923395445135</v>
+        <v>0.15390625</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0113871635610766</v>
+        <v>0.0109375</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2132505175983437</v>
+        <v>0.2078125</v>
       </c>
       <c r="R10">
-        <v>0.1045548654244306</v>
+        <v>0.09531249999999999</v>
       </c>
       <c r="S10">
-        <v>0.3405797101449275</v>
+        <v>0.34140625</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1311475409836066</v>
+        <v>0.1504065040650407</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09289617486338798</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K11">
-        <v>0.180327868852459</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="L11">
-        <v>0.5792349726775956</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01639344262295082</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7894736842105263</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1052631578947368</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="K12">
-        <v>0.02631578947368421</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="L12">
-        <v>0.05263157894736842</v>
+        <v>0.05594405594405594</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02631578947368421</v>
+        <v>0.02097902097902098</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6521739130434783</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3478260869565217</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02222222222222222</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1925925925925926</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="I15">
-        <v>0.07407407407407407</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="J15">
-        <v>0.3703703703703703</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="K15">
-        <v>0.03703703703703703</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01481481481481482</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05185185185185185</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.237037037037037</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03174603174603174</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1349206349206349</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="I16">
-        <v>0.1507936507936508</v>
+        <v>0.1306818181818182</v>
       </c>
       <c r="J16">
-        <v>0.4682539682539683</v>
+        <v>0.4715909090909091</v>
       </c>
       <c r="K16">
-        <v>0.0873015873015873</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007936507936507936</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.04761904761904762</v>
+        <v>0.05113636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02710843373493976</v>
+        <v>0.02540415704387991</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1867469879518072</v>
+        <v>0.187066974595843</v>
       </c>
       <c r="I17">
-        <v>0.1114457831325301</v>
+        <v>0.115473441108545</v>
       </c>
       <c r="J17">
-        <v>0.4096385542168675</v>
+        <v>0.4018475750577367</v>
       </c>
       <c r="K17">
-        <v>0.09939759036144578</v>
+        <v>0.09930715935334873</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009036144578313253</v>
+        <v>0.01616628175519631</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0572289156626506</v>
+        <v>0.05311778290993072</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09939759036144578</v>
+        <v>0.1016166281755196</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05617977528089887</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1853932584269663</v>
+        <v>0.1751152073732719</v>
       </c>
       <c r="I18">
-        <v>0.1348314606741573</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="J18">
-        <v>0.4044943820224719</v>
+        <v>0.4377880184331797</v>
       </c>
       <c r="K18">
-        <v>0.07303370786516854</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02808988764044944</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03932584269662921</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07865168539325842</v>
+        <v>0.07834101382488479</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01713586291309669</v>
+        <v>0.0168697282099344</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2105263157894737</v>
+        <v>0.2071227741330834</v>
       </c>
       <c r="I19">
-        <v>0.1064871481028152</v>
+        <v>0.1021555763823805</v>
       </c>
       <c r="J19">
-        <v>0.4149326805385557</v>
+        <v>0.4236176194939081</v>
       </c>
       <c r="K19">
-        <v>0.1015911872705018</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01591187270501836</v>
+        <v>0.014058106841612</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05507955936352509</v>
+        <v>0.05435801312089972</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07833537331701346</v>
+        <v>0.07872539831302718</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oral Roberts_B.xlsx
+++ b/team_specific_matrix/Oral Roberts_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1802120141342756</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C2">
-        <v>0.5618374558303887</v>
+        <v>0.5709342560553633</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03886925795053003</v>
+        <v>0.03806228373702422</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1342756183745583</v>
+        <v>0.1314878892733564</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08480565371024736</v>
+        <v>0.08304498269896193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006134969325153374</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C3">
-        <v>0.03067484662576687</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.049079754601227</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7361963190184049</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1779141104294479</v>
+        <v>0.1715976331360947</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1025641025641026</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P4">
-        <v>0.6410256410256411</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2307692307692308</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07547169811320754</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009433962264150943</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04716981132075472</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3207547169811321</v>
+        <v>0.3273542600896861</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01886792452830189</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1650943396226415</v>
+        <v>0.1659192825112108</v>
       </c>
       <c r="R6">
-        <v>0.08018867924528301</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="S6">
-        <v>0.2830188679245283</v>
+        <v>0.2869955156950673</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07926829268292683</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02439024390243903</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E7">
-        <v>0.006097560975609756</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="F7">
-        <v>0.06097560975609756</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1280487804878049</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02439024390243903</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1768292682926829</v>
+        <v>0.1823529411764706</v>
       </c>
       <c r="R7">
-        <v>0.07317073170731707</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="S7">
-        <v>0.4268292682926829</v>
+        <v>0.4235294117647059</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08040201005025126</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01005025125628141</v>
+        <v>0.01431980906921241</v>
       </c>
       <c r="E8">
-        <v>0.002512562814070352</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="F8">
-        <v>0.06532663316582915</v>
+        <v>0.06682577565632458</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1055276381909548</v>
+        <v>0.1026252983293556</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02010050251256281</v>
+        <v>0.02147971360381861</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1834170854271357</v>
+        <v>0.1813842482100239</v>
       </c>
       <c r="R8">
-        <v>0.09798994974874371</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="S8">
-        <v>0.4346733668341708</v>
+        <v>0.431980906921241</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1155555555555556</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02666666666666667</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04444444444444445</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1555555555555556</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01333333333333333</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1466666666666667</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="R9">
-        <v>0.12</v>
+        <v>0.1163793103448276</v>
       </c>
       <c r="S9">
-        <v>0.3777777777777778</v>
+        <v>0.3879310344827586</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.10546875</v>
+        <v>0.1044663133989402</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0203125</v>
+        <v>0.01968205904617714</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06484375000000001</v>
+        <v>0.06661619984859955</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.15390625</v>
+        <v>0.1521574564723694</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0109375</v>
+        <v>0.01059803179409538</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2078125</v>
+        <v>0.2096896290688872</v>
       </c>
       <c r="R10">
-        <v>0.09531249999999999</v>
+        <v>0.09538228614685844</v>
       </c>
       <c r="S10">
-        <v>0.34140625</v>
+        <v>0.3414080242240727</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1504065040650407</v>
+        <v>0.1535433070866142</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0975609756097561</v>
+        <v>0.09842519685039371</v>
       </c>
       <c r="K11">
-        <v>0.2032520325203252</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="L11">
-        <v>0.5365853658536586</v>
+        <v>0.531496062992126</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219512195121951</v>
+        <v>0.01181102362204724</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8041958041958042</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0979020979020979</v>
+        <v>0.1027397260273973</v>
       </c>
       <c r="K12">
-        <v>0.02097902097902098</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="L12">
-        <v>0.05594405594405594</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02097902097902098</v>
+        <v>0.02054794520547945</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6774193548387096</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3225806451612903</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01724137931034483</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1724137931034483</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="I15">
-        <v>0.06896551724137931</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="J15">
-        <v>0.3793103448275862</v>
+        <v>0.3867403314917127</v>
       </c>
       <c r="K15">
-        <v>0.04022988505747126</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01724137931034483</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06321839080459771</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2413793103448276</v>
+        <v>0.2375690607734807</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03409090909090909</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1477272727272727</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="I16">
-        <v>0.1306818181818182</v>
+        <v>0.125</v>
       </c>
       <c r="J16">
-        <v>0.4715909090909091</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="K16">
-        <v>0.08522727272727272</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01136363636363636</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06818181818181818</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.05113636363636364</v>
+        <v>0.04891304347826087</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02540415704387991</v>
+        <v>0.03104212860310421</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.187066974595843</v>
+        <v>0.1862527716186253</v>
       </c>
       <c r="I17">
-        <v>0.115473441108545</v>
+        <v>0.1152993348115299</v>
       </c>
       <c r="J17">
-        <v>0.4018475750577367</v>
+        <v>0.3924611973392461</v>
       </c>
       <c r="K17">
-        <v>0.09930715935334873</v>
+        <v>0.09534368070953436</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01616628175519631</v>
+        <v>0.01995565410199556</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05311778290993072</v>
+        <v>0.05543237250554324</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1016166281755196</v>
+        <v>0.1042128603104213</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04608294930875576</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1751152073732719</v>
+        <v>0.1741071428571428</v>
       </c>
       <c r="I18">
-        <v>0.1290322580645161</v>
+        <v>0.1294642857142857</v>
       </c>
       <c r="J18">
-        <v>0.4377880184331797</v>
+        <v>0.4419642857142857</v>
       </c>
       <c r="K18">
-        <v>0.06912442396313365</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02304147465437788</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04147465437788019</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07834101382488479</v>
+        <v>0.08035714285714286</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0168697282099344</v>
+        <v>0.01624548736462094</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2071227741330834</v>
+        <v>0.2129963898916968</v>
       </c>
       <c r="I19">
-        <v>0.1021555763823805</v>
+        <v>0.1010830324909747</v>
       </c>
       <c r="J19">
-        <v>0.4236176194939081</v>
+        <v>0.4205776173285198</v>
       </c>
       <c r="K19">
-        <v>0.1030927835051546</v>
+        <v>0.1028880866425993</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.014058106841612</v>
+        <v>0.01353790613718412</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05435801312089972</v>
+        <v>0.05415162454873646</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07872539831302718</v>
+        <v>0.07851985559566788</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oral Roberts_B.xlsx
+++ b/team_specific_matrix/Oral Roberts_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1764705882352941</v>
+        <v>0.1722972972972973</v>
       </c>
       <c r="C2">
-        <v>0.5709342560553633</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03806228373702422</v>
+        <v>0.03716216216216216</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1314878892733564</v>
+        <v>0.1283783783783784</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08304498269896193</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005917159763313609</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="C3">
-        <v>0.02958579881656805</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04733727810650887</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7455621301775148</v>
+        <v>0.7443181818181818</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1715976331360947</v>
+        <v>0.1761363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0975609756097561</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P4">
-        <v>0.6585365853658537</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2195121951219512</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07174887892376682</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008968609865470852</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04484304932735426</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3273542600896861</v>
+        <v>0.3319148936170213</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0179372197309417</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1659192825112108</v>
+        <v>0.1659574468085106</v>
       </c>
       <c r="R6">
-        <v>0.07623318385650224</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="S6">
-        <v>0.2869955156950673</v>
+        <v>0.2851063829787234</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764706</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02352941176470588</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="E7">
-        <v>0.005882352941176471</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1235294117647059</v>
+        <v>0.12</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02352941176470588</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1823529411764706</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="R7">
-        <v>0.07058823529411765</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="S7">
-        <v>0.4235294117647059</v>
+        <v>0.4342857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07875894988066826</v>
+        <v>0.08177570093457943</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01431980906921241</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="E8">
-        <v>0.002386634844868735</v>
+        <v>0.002336448598130841</v>
       </c>
       <c r="F8">
-        <v>0.06682577565632458</v>
+        <v>0.06775700934579439</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1026252983293556</v>
+        <v>0.1004672897196262</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02147971360381861</v>
+        <v>0.02102803738317757</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1813842482100239</v>
+        <v>0.1845794392523364</v>
       </c>
       <c r="R8">
-        <v>0.1002386634844869</v>
+        <v>0.1004672897196262</v>
       </c>
       <c r="S8">
-        <v>0.431980906921241</v>
+        <v>0.4275700934579439</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1120689655172414</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02586206896551724</v>
+        <v>0.025</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04310344827586207</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1551724137931035</v>
+        <v>0.15</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01293103448275862</v>
+        <v>0.0125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.146551724137931</v>
+        <v>0.15</v>
       </c>
       <c r="R9">
-        <v>0.1163793103448276</v>
+        <v>0.1125</v>
       </c>
       <c r="S9">
-        <v>0.3879310344827586</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1044663133989402</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01968205904617714</v>
+        <v>0.01970802919708029</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06661619984859955</v>
+        <v>0.06715328467153285</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1521574564723694</v>
+        <v>0.1525547445255475</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01059803179409538</v>
+        <v>0.01240875912408759</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2096896290688872</v>
+        <v>0.2102189781021898</v>
       </c>
       <c r="R10">
-        <v>0.09538228614685844</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="S10">
-        <v>0.3414080242240727</v>
+        <v>0.3408759124087591</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1535433070866142</v>
+        <v>0.1532567049808429</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09842519685039371</v>
+        <v>0.09578544061302682</v>
       </c>
       <c r="K11">
-        <v>0.2047244094488189</v>
+        <v>0.2030651340996169</v>
       </c>
       <c r="L11">
-        <v>0.531496062992126</v>
+        <v>0.5363984674329502</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01181102362204724</v>
+        <v>0.01149425287356322</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8013698630136986</v>
+        <v>0.8013245033112583</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1027397260273973</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="K12">
-        <v>0.02054794520547945</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="L12">
-        <v>0.0547945205479452</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02054794520547945</v>
+        <v>0.01986754966887417</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.696969696969697</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.303030303030303</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01657458563535912</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1657458563535912</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="I15">
-        <v>0.0718232044198895</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="J15">
-        <v>0.3867403314917127</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="K15">
-        <v>0.03867403314917127</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01657458563535912</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06629834254143646</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2375690607734807</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03260869565217391</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1521739130434783</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="I16">
-        <v>0.125</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="J16">
-        <v>0.4673913043478261</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="K16">
-        <v>0.09239130434782608</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0108695652173913</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07065217391304347</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.04891304347826087</v>
+        <v>0.04736842105263158</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03104212860310421</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1862527716186253</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="I17">
-        <v>0.1152993348115299</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="J17">
-        <v>0.3924611973392461</v>
+        <v>0.3978723404255319</v>
       </c>
       <c r="K17">
-        <v>0.09534368070953436</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01995565410199556</v>
+        <v>0.01914893617021277</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05543237250554324</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1042128603104213</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04464285714285714</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1741071428571428</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I18">
-        <v>0.1294642857142857</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="J18">
-        <v>0.4419642857142857</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="K18">
-        <v>0.06696428571428571</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02232142857142857</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04017857142857143</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08035714285714286</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01624548736462094</v>
+        <v>0.01834061135371179</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2129963898916968</v>
+        <v>0.211353711790393</v>
       </c>
       <c r="I19">
-        <v>0.1010830324909747</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="J19">
-        <v>0.4205776173285198</v>
+        <v>0.422707423580786</v>
       </c>
       <c r="K19">
-        <v>0.1028880866425993</v>
+        <v>0.1013100436681223</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01353790613718412</v>
+        <v>0.01397379912663755</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05415162454873646</v>
+        <v>0.05414847161572053</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07851985559566788</v>
+        <v>0.0777292576419214</v>
       </c>
     </row>
   </sheetData>
